--- a/2D/Structural/Dan Terrace Floor Loads.xlsx
+++ b/2D/Structural/Dan Terrace Floor Loads.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ChadHouse\2D\Structural\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="6585"/>
+    <workbookView xWindow="1365" yWindow="0" windowWidth="15525" windowHeight="6585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -76,12 +76,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,71 +473,85 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.06640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.265625" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>0.7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B7">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="5">
         <f>SUM(B1:B6)</f>
         <v>3.38</v>
       </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
